--- a/create cards for OZON WB XLS/Data_to_create4.xlsx
+++ b/create cards for OZON WB XLS/Data_to_create4.xlsx
@@ -1273,7 +1273,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="183" uniqueCount="86">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="182" uniqueCount="85">
   <si>
     <t xml:space="preserve">Артикул</t>
   </si>
@@ -1513,16 +1513,13 @@
     <t xml:space="preserve">astronaut_a_horiz</t>
   </si>
   <si>
-    <t xml:space="preserve">https://raw.githubusercontent.com/maxuzkikh/Ozon_upload/main/images/А4/</t>
+    <t xml:space="preserve">https://raw.githubusercontent.com/maxuzkikh/Ozon_upload/main/images/А5/</t>
   </si>
   <si>
     <t xml:space="preserve">Декор для одежды</t>
   </si>
   <si>
     <t xml:space="preserve">Punky Monkey</t>
-  </si>
-  <si>
-    <t xml:space="preserve">OZN1431071314</t>
   </si>
   <si>
     <t xml:space="preserve">Полимерный материал</t>
@@ -1750,7 +1747,7 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="165" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -1774,7 +1771,7 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="true" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -1878,7 +1875,7 @@
   <dimension ref="A1:BS120"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="D7" activeCellId="0" sqref="D7"/>
+      <selection pane="topLeft" activeCell="BN3" activeCellId="0" sqref="BN3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -1897,10 +1894,10 @@
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="12" min="12" style="0" width="23.76"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="13" min="13" style="0" width="44.18"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="14" min="14" style="0" width="16.39"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="15" min="15" style="0" width="55.57"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="15" min="15" style="0" width="61.97"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="16" min="16" style="0" width="18.34"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="17" min="17" style="0" width="22.36"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="18" min="18" style="0" width="12.63"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="18" min="18" style="0" width="15.97"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="19" min="19" style="0" width="56.96"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="20" min="20" style="0" width="22.23"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="21" min="21" style="0" width="18.34"/>
@@ -2144,7 +2141,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="2" customFormat="false" ht="18.65" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="2" customFormat="false" ht="191" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A2" s="6" t="s">
         <v>71</v>
       </c>
@@ -2182,14 +2179,11 @@
         <f aca="false">"Термонаклейка для одежды:" &amp; SUBSTITUTE(A2, "Термонаклейка", "")</f>
         <v>Термонаклейка для одежды: Космонавт на луне ловит звезды ТЕСТ</v>
       </c>
-      <c r="P2" s="0" t="s">
-        <v>76</v>
-      </c>
       <c r="Q2" s="0" t="n">
         <v>285</v>
       </c>
       <c r="R2" s="0" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="S2" s="7" t="str">
         <f aca="false">A2&amp;Описание!B7</f>
@@ -2200,20 +2194,20 @@
         <v>1</v>
       </c>
       <c r="U2" s="0" t="n">
-        <v>30</v>
+        <v>21</v>
       </c>
       <c r="V2" s="0" t="n">
-        <v>25</v>
+        <v>15</v>
       </c>
       <c r="W2" s="0" t="n">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="X2" s="0" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="Y2" s="8" t="str">
-        <f aca="false">CONCATENATE(CONCATENATE(H2,C2,"_1.jpg;"),CONCATENATE(H2,C2,"_2.jpg;"),CONCATENATE(H2,C2,"_3.jpg;"),CONCATENATE(H2,C2,"_4.jpg;"),CONCATENATE(H2,C2,"_5.jpg;"),CONCATENATE(H2,C2,"_6.jpg;"),CONCATENATE(H2,C2,"_7.jpg;"),CONCATENATE(H2,"instruction_A4.jpg;"),CONCATENATE(H2,"Video_DTF.mp4;"))</f>
-        <v>https://raw.githubusercontent.com/maxuzkikh/Ozon_upload/main/images/А4/astronaut_a_horiz_1.jpg;https://raw.githubusercontent.com/maxuzkikh/Ozon_upload/main/images/А4/astronaut_a_horiz_2.jpg;https://raw.githubusercontent.com/maxuzkikh/Ozon_upload/main/images/А4/astronaut_a_horiz_3.jpg;https://raw.githubusercontent.com/maxuzkikh/Ozon_upload/main/images/А4/astronaut_a_horiz_4.jpg;https://raw.githubusercontent.com/maxuzkikh/Ozon_upload/main/images/А4/astronaut_a_horiz_5.jpg;https://raw.githubusercontent.com/maxuzkikh/Ozon_upload/main/images/А4/astronaut_a_horiz_6.jpg;https://raw.githubusercontent.com/maxuzkikh/Ozon_upload/main/images/А4/astronaut_a_horiz_7.jpg;https://raw.githubusercontent.com/maxuzkikh/Ozon_upload/main/images/А4/instruction_A4.jpg;https://raw.githubusercontent.com/maxuzkikh/Ozon_upload/main/images/А4/Video_DTF.mp4;</v>
+        <f aca="false">CONCATENATE(CONCATENATE(H2,C2,"_1.jpg;"),CONCATENATE(H2,C2,"_2.jpg;"),CONCATENATE(H2,C2,"_3.jpg;"),CONCATENATE(H2,C2,"_4.jpg;"),CONCATENATE(H2,C2,"_5.jpg;"),CONCATENATE(H2,"instruction_A5.jpg;"),CONCATENATE(H2,"Video_DTF.mp4;"))</f>
+        <v>https://raw.githubusercontent.com/maxuzkikh/Ozon_upload/main/images/А5/astronaut_a_horiz_1.jpg;https://raw.githubusercontent.com/maxuzkikh/Ozon_upload/main/images/А5/astronaut_a_horiz_2.jpg;https://raw.githubusercontent.com/maxuzkikh/Ozon_upload/main/images/А5/astronaut_a_horiz_3.jpg;https://raw.githubusercontent.com/maxuzkikh/Ozon_upload/main/images/А5/astronaut_a_horiz_4.jpg;https://raw.githubusercontent.com/maxuzkikh/Ozon_upload/main/images/А5/astronaut_a_horiz_5.jpg;https://raw.githubusercontent.com/maxuzkikh/Ozon_upload/main/images/А5/instruction_A5.jpg;https://raw.githubusercontent.com/maxuzkikh/Ozon_upload/main/images/А5/Video_DTF.mp4;</v>
       </c>
       <c r="AA2" s="0" t="str">
         <f aca="false">A2</f>
@@ -2228,40 +2222,40 @@
         <v>428</v>
       </c>
       <c r="AD2" s="9" t="s">
+        <v>78</v>
+      </c>
+      <c r="AE2" s="10" t="s">
         <v>79</v>
-      </c>
-      <c r="AE2" s="10" t="s">
-        <v>80</v>
       </c>
       <c r="AH2" s="0" t="n">
         <f aca="false">W2</f>
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="AI2" s="11" t="n">
         <f aca="false">V2*10</f>
-        <v>250</v>
+        <v>150</v>
       </c>
       <c r="AJ2" s="12" t="n">
         <v>1</v>
       </c>
       <c r="AK2" s="11" t="n">
         <f aca="false">U2*10</f>
-        <v>300</v>
+        <v>210</v>
       </c>
       <c r="AL2" s="13" t="str">
         <f aca="false">CONCATENATE(H2,C2,"_1.jpg")</f>
-        <v>https://raw.githubusercontent.com/maxuzkikh/Ozon_upload/main/images/А4/astronaut_a_horiz_1.jpg</v>
+        <v>https://raw.githubusercontent.com/maxuzkikh/Ozon_upload/main/images/А5/astronaut_a_horiz_1.jpg</v>
       </c>
       <c r="AM2" s="14" t="str">
-        <f aca="false">CONCATENATE(CONCATENATE(H2, C2, "_2.jpg;"),CONCATENATE(H2, C2, "_3.jpg;"),CONCATENATE(H2, C2, "_4.jpg;"),CONCATENATE(H2, C2, "_5.jpg;"),CONCATENATE(H2, C2, "_6.jpg;"),CONCATENATE(H2, C2, "_7.jpg;"),CONCATENATE(H2, C2, "_8.jpg;"),CONCATENATE(H2, C2, "_9.jpg;"),CONCATENATE(H2, C2, "_10.jpg;"),CONCATENATE(H2, "instruction_A4.jpg;") )</f>
-        <v>https://raw.githubusercontent.com/maxuzkikh/Ozon_upload/main/images/А4/astronaut_a_horiz_2.jpg;https://raw.githubusercontent.com/maxuzkikh/Ozon_upload/main/images/А4/astronaut_a_horiz_3.jpg;https://raw.githubusercontent.com/maxuzkikh/Ozon_upload/main/images/А4/astronaut_a_horiz_4.jpg;https://raw.githubusercontent.com/maxuzkikh/Ozon_upload/main/images/А4/astronaut_a_horiz_5.jpg;https://raw.githubusercontent.com/maxuzkikh/Ozon_upload/main/images/А4/astronaut_a_horiz_6.jpg;https://raw.githubusercontent.com/maxuzkikh/Ozon_upload/main/images/А4/astronaut_a_horiz_7.jpg;https://raw.githubusercontent.com/maxuzkikh/Ozon_upload/main/images/А4/astronaut_a_horiz_8.jpg;https://raw.githubusercontent.com/maxuzkikh/Ozon_upload/main/images/А4/astronaut_a_horiz_9.jpg;https://raw.githubusercontent.com/maxuzkikh/Ozon_upload/main/images/А4/astronaut_a_horiz_10.jpg;https://raw.githubusercontent.com/maxuzkikh/Ozon_upload/main/images/А4/instruction_A4.jpg;</v>
+        <f aca="false">CONCATENATE(CONCATENATE(H2, C2, "_2.jpg;"),CONCATENATE(H2, C2, "_3.jpg;"),CONCATENATE(H2, C2, "_4.jpg;"),CONCATENATE(H2, C2, "_5.jpg;"),CONCATENATE(H2, "instruction_A5.jpg;") )</f>
+        <v>https://raw.githubusercontent.com/maxuzkikh/Ozon_upload/main/images/А5/astronaut_a_horiz_2.jpg;https://raw.githubusercontent.com/maxuzkikh/Ozon_upload/main/images/А5/astronaut_a_horiz_3.jpg;https://raw.githubusercontent.com/maxuzkikh/Ozon_upload/main/images/А5/astronaut_a_horiz_4.jpg;https://raw.githubusercontent.com/maxuzkikh/Ozon_upload/main/images/А5/astronaut_a_horiz_5.jpg;https://raw.githubusercontent.com/maxuzkikh/Ozon_upload/main/images/А5/instruction_A5.jpg;</v>
       </c>
       <c r="AP2" s="13" t="str">
         <f aca="false">J2</f>
         <v>Punky Monkey</v>
       </c>
       <c r="AQ2" s="15" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="AS2" s="10"/>
       <c r="AT2" s="0" t="str">
@@ -2269,7 +2263,7 @@
         <v>Космонавт на луне ловит звезды ТЕСТ</v>
       </c>
       <c r="AU2" s="9" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="AV2" s="0" t="str">
         <f aca="false">S2</f>
@@ -2285,23 +2279,23 @@
         <v>Полимерный материал</v>
       </c>
       <c r="BC2" s="10" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="BD2" s="10"/>
       <c r="BE2" s="14" t="str">
         <f aca="false">CONCATENATE(H2,C2,"_color.jpg")</f>
-        <v>https://raw.githubusercontent.com/maxuzkikh/Ozon_upload/main/images/А4/astronaut_a_horiz_color.jpg</v>
+        <v>https://raw.githubusercontent.com/maxuzkikh/Ozon_upload/main/images/А5/astronaut_a_horiz_color.jpg</v>
       </c>
       <c r="BM2" s="0" t="str">
         <f aca="false">CONCATENATE("термонаклейка для одежды, термотрансфер, заплатка, принт, наклейка для декора одежды и других предметов из текстиля,",SUBSTITUTE(A2,"Термонаклейка",""))</f>
         <v>термонаклейка для одежды, термотрансфер, заплатка, принт, наклейка для декора одежды и других предметов из текстиля, Космонавт на луне ловит звезды ТЕСТ</v>
       </c>
       <c r="BR2" s="6" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="BS2" s="16" t="str">
         <f aca="false">CONCATENATE(H2,"Video_DTF.mp4")</f>
-        <v>https://raw.githubusercontent.com/maxuzkikh/Ozon_upload/main/images/А4/Video_DTF.mp4</v>
+        <v>https://raw.githubusercontent.com/maxuzkikh/Ozon_upload/main/images/А5/Video_DTF.mp4</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="18.65" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -3577,6 +3571,9 @@
       <formula2>0</formula2>
     </dataValidation>
   </dataValidations>
+  <hyperlinks>
+    <hyperlink ref="H2" r:id="rId2" display="https://raw.githubusercontent.com/maxuzkikh/Ozon_upload/main/images/А5/"/>
+  </hyperlinks>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.747916666666667" right="0.747916666666667" top="0.984027777777778" bottom="0.984027777777778" header="0.511805555555555" footer="0.511805555555555"/>
   <pageSetup paperSize="1" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
@@ -3584,7 +3581,7 @@
     <oddHeader/>
     <oddFooter/>
   </headerFooter>
-  <legacyDrawing r:id="rId2"/>
+  <legacyDrawing r:id="rId3"/>
 </worksheet>
 </file>
 
@@ -3609,394 +3606,394 @@
     <row r="1" customFormat="false" ht="32.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
     <row r="2" customFormat="false" ht="32.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A2" s="0" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="B2" s="7" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="32.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A3" s="0" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="B3" s="7" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="32.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A4" s="0" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="B4" s="7" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="32.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A5" s="0" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="B5" s="7" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="32.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A6" s="0" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="B6" s="7" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="32.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A7" s="0" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="B7" s="7" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="32.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A8" s="0" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="B8" s="7" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="32.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A9" s="0" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="B9" s="7" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="32.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A10" s="0" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="B10" s="7" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="32.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A11" s="0" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="B11" s="7" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
     </row>
     <row r="12" customFormat="false" ht="32.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A12" s="0" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="B12" s="7" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
     </row>
     <row r="13" customFormat="false" ht="32.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A13" s="0" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="B13" s="7" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
     </row>
     <row r="14" customFormat="false" ht="32.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A14" s="0" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="B14" s="7" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
     </row>
     <row r="15" customFormat="false" ht="32.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A15" s="0" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="B15" s="7" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
     </row>
     <row r="16" customFormat="false" ht="32.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A16" s="0" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="B16" s="7" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
     </row>
     <row r="17" customFormat="false" ht="32.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A17" s="0" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="B17" s="7" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
     </row>
     <row r="18" customFormat="false" ht="32.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A18" s="0" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="B18" s="7" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
     </row>
     <row r="19" customFormat="false" ht="32.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A19" s="0" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="B19" s="7" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
     </row>
     <row r="20" customFormat="false" ht="32.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A20" s="0" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="B20" s="7" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
     </row>
     <row r="21" customFormat="false" ht="32.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A21" s="0" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="B21" s="7" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
     </row>
     <row r="22" customFormat="false" ht="32.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A22" s="0" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="B22" s="7" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
     </row>
     <row r="23" customFormat="false" ht="32.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A23" s="0" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="B23" s="7" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
     </row>
     <row r="24" customFormat="false" ht="32.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A24" s="0" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="B24" s="7" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
     </row>
     <row r="25" customFormat="false" ht="32.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A25" s="0" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="B25" s="7" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
     </row>
     <row r="26" customFormat="false" ht="32.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A26" s="0" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="B26" s="7" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
     </row>
     <row r="27" customFormat="false" ht="32.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A27" s="0" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="B27" s="7" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
     </row>
     <row r="28" customFormat="false" ht="32.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A28" s="0" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="B28" s="7" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
     </row>
     <row r="29" customFormat="false" ht="32.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A29" s="0" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="B29" s="7" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
     </row>
     <row r="30" customFormat="false" ht="32.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A30" s="0" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="B30" s="7" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
     </row>
     <row r="31" customFormat="false" ht="32.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A31" s="0" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="B31" s="7" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
     </row>
     <row r="32" customFormat="false" ht="32.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A32" s="0" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="B32" s="7" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
     </row>
     <row r="33" customFormat="false" ht="32.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A33" s="0" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="B33" s="7" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
     </row>
     <row r="34" customFormat="false" ht="32.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A34" s="0" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="B34" s="7" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
     </row>
     <row r="35" customFormat="false" ht="32.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A35" s="0" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="B35" s="7" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
     </row>
     <row r="36" customFormat="false" ht="32.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A36" s="0" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="B36" s="7" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
     </row>
     <row r="37" customFormat="false" ht="32.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A37" s="0" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="B37" s="7" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
     </row>
     <row r="38" customFormat="false" ht="32.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A38" s="0" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="B38" s="7" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
     </row>
     <row r="39" customFormat="false" ht="32.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A39" s="0" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="B39" s="7" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
     </row>
     <row r="40" customFormat="false" ht="32.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A40" s="0" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="B40" s="7" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
     </row>
     <row r="41" customFormat="false" ht="32.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A41" s="0" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="B41" s="7" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
     </row>
     <row r="42" customFormat="false" ht="32.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A42" s="0" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="B42" s="7" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
     </row>
     <row r="43" customFormat="false" ht="32.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A43" s="0" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="B43" s="7" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
     </row>
     <row r="44" customFormat="false" ht="32.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A44" s="0" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="B44" s="7" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
     </row>
     <row r="45" customFormat="false" ht="32.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A45" s="0" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="B45" s="7" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
     </row>
     <row r="46" customFormat="false" ht="32.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A46" s="0" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="B46" s="7" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
     </row>
     <row r="47" customFormat="false" ht="32.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A47" s="0" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="B47" s="7" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
     </row>
     <row r="48" customFormat="false" ht="32.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A48" s="0" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="B48" s="7" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
     </row>
     <row r="49" customFormat="false" ht="32.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A49" s="0" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="B49" s="7" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
     </row>
     <row r="50" customFormat="false" ht="32.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A50" s="0" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="B50" s="7" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
     </row>
     <row r="51" customFormat="false" ht="32.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
